--- a/MainTop/28.04.2025/add.xlsx
+++ b/MainTop/28.04.2025/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\28.04.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCE19F-6FA2-41FD-8C6C-6225B6E6156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896C33C-EEE7-4F29-895C-FCB7C09BDBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Термобирки белые 30шт</t>
   </si>
@@ -86,19 +86,29 @@
   </si>
   <si>
     <t>Термонаклейка Животные с радугой</t>
+  </si>
+  <si>
+    <t>Термонаклейка Минни Маус фея костюм</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -128,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -137,6 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,41 +487,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="B10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -518,7 +529,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -526,7 +537,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -534,23 +545,23 @@
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>24</v>
@@ -558,25 +569,33 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>12</v>
       </c>
     </row>
